--- a/SVM/result.xlsx
+++ b/SVM/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Machine-learning\SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEEF16B-96F7-46B7-B164-93CADA97AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF4921-EF0F-4DCC-A91D-FBB0C732ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="3036" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42690" yWindow="6240" windowWidth="23040" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13502,15 +13502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28952,8 +28952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F94CC-9C6B-40DA-B6F2-FE3442BF01E1}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L102" activeCellId="1" sqref="E2:F102 K2:L102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G79" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32827,7 +32827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3AC7CD-9330-4023-828B-17383BCF3B74}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
